--- a/src/main/resources/testdata/crmpro/ConfigLayoutRecordField.xlsx
+++ b/src/main/resources/testdata/crmpro/ConfigLayoutRecordField.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>RecordType</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>DecimalBigSequence</t>
+  </si>
+  <si>
+    <t>AuthorizationCode</t>
   </si>
 </sst>
 </file>
@@ -336,36 +339,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -434,6 +407,36 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -672,20 +675,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaField" displayName="TabelaField" ref="A1:I16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaField" displayName="TabelaField" ref="A1:I17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I17"/>
   <tableColumns count="9">
     <tableColumn id="1" name="RecordType" dataDxfId="8"/>
     <tableColumn id="2" name="RecordTypeName" dataDxfId="7"/>
     <tableColumn id="3" name="RecordField" dataDxfId="6"/>
     <tableColumn id="6" name="RecordFieldStart" dataDxfId="5"/>
     <tableColumn id="7" name="RecordFieldEnd" dataDxfId="4"/>
-    <tableColumn id="8" name="RecordFieldSize" dataDxfId="0">
+    <tableColumn id="8" name="RecordFieldSize" dataDxfId="3">
       <calculatedColumnFormula>E2-D2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="RecordFieldFormat" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="10" name="Obs" dataDxfId="1"/>
+    <tableColumn id="9" name="RecordFieldFormat" dataDxfId="2"/>
+    <tableColumn id="4" name="Description" dataDxfId="1"/>
+    <tableColumn id="10" name="Obs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F15" si="0">E3-D3+1</f>
+        <f t="shared" ref="F3:F16" si="0">E3-D3+1</f>
         <v>8</v>
       </c>
       <c r="G3" s="21"/>
@@ -1149,27 +1152,27 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D7" s="14">
+        <v>150</v>
+      </c>
+      <c r="E7" s="14">
+        <v>155</v>
+      </c>
+      <c r="F7" s="22">
+        <f>E7-D7+1</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,20 +1183,20 @@
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,17 +1207,17 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E9" s="8">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -1228,13 +1231,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8">
-        <v>96</v>
-      </c>
-      <c r="E10" s="14">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="E10" s="8">
+        <v>95</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
@@ -1246,27 +1249,27 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="E11" s="14">
+        <v>103</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1275,46 +1278,46 @@
       <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="14">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14">
-        <v>18</v>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>12</v>
+      <c r="A13" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14">
+        <v>18</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1323,70 +1326,94 @@
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="14">
-        <v>14</v>
-      </c>
-      <c r="E14" s="14">
-        <v>31</v>
-      </c>
-      <c r="F14" s="22">
-        <f>E14-D14+1</f>
-        <v>18</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E14" s="8">
         <v>4</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14">
+        <v>31</v>
+      </c>
+      <c r="F15" s="22">
+        <f>E15-D15+1</f>
+        <v>18</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D17" s="23">
         <v>10</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="23">
         <v>66</v>
       </c>
-      <c r="F16" s="21">
-        <f>E16-D16+1</f>
+      <c r="F17" s="21">
+        <f>E17-D17+1</f>
         <v>57</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/src/main/resources/testdata/crmpro/ConfigLayoutRecordField.xlsx
+++ b/src/main/resources/testdata/crmpro/ConfigLayoutRecordField.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>RecordType</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>AuthorizationCode</t>
+  </si>
+  <si>
+    <t>VlrVenda</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaField" displayName="TabelaField" ref="A1:I17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TabelaField" displayName="TabelaField" ref="A1:I18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I18"/>
   <tableColumns count="9">
     <tableColumn id="1" name="RecordType" dataDxfId="8"/>
     <tableColumn id="2" name="RecordTypeName" dataDxfId="7"/>
@@ -981,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F16" si="0">E3-D3+1</f>
+        <f t="shared" ref="F3:F17" si="0">E3-D3+1</f>
         <v>8</v>
       </c>
       <c r="G3" s="21"/>
@@ -1176,27 +1179,27 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14">
+        <v>77</v>
+      </c>
+      <c r="E8" s="14">
+        <v>88</v>
+      </c>
+      <c r="F8" s="22">
+        <f>E8-D8+1</f>
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1207,20 +1210,20 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,17 +1234,17 @@
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -1255,13 +1258,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8">
-        <v>96</v>
-      </c>
-      <c r="E11" s="14">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="E11" s="8">
+        <v>95</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="0"/>
@@ -1273,27 +1276,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="E12" s="14">
+        <v>103</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1302,46 +1305,46 @@
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14">
-        <v>17</v>
-      </c>
-      <c r="E13" s="14">
-        <v>18</v>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>12</v>
+      <c r="A14" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14">
+        <v>18</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -1350,70 +1353,94 @@
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="14">
-        <v>14</v>
-      </c>
-      <c r="E15" s="14">
-        <v>31</v>
-      </c>
-      <c r="F15" s="22">
-        <f>E15-D15+1</f>
-        <v>18</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14">
+        <v>31</v>
+      </c>
+      <c r="F16" s="22">
+        <f>E16-D16+1</f>
+        <v>18</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D18" s="23">
         <v>10</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E18" s="23">
         <v>66</v>
       </c>
-      <c r="F17" s="21">
-        <f>E17-D17+1</f>
+      <c r="F18" s="21">
+        <f>E18-D18+1</f>
         <v>57</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
